--- a/hasil-jadwal-ujian.xlsx
+++ b/hasil-jadwal-ujian.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>JADWAL UJIAN AKHIR SEMESTER TEKNIK INFORMATIKA UNSOED 2019</t>
   </si>
   <si>
-    <t>Generasi ke-81</t>
+    <t>Generasi ke-21</t>
   </si>
   <si>
     <t>KODE</t>
@@ -37,169 +37,184 @@
     <t>TIF13105</t>
   </si>
   <si>
+    <t>Selasa, 11.00 - 13.00</t>
+  </si>
+  <si>
+    <t>C201 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13107</t>
+  </si>
+  <si>
+    <t>Selasa, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>E201 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13108</t>
+  </si>
+  <si>
+    <t>Rabu, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>C203 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13110</t>
+  </si>
+  <si>
+    <t>Selasa, 13.00 - 15.00</t>
+  </si>
+  <si>
+    <t>E103 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13112</t>
+  </si>
+  <si>
+    <t>TIF13114</t>
+  </si>
+  <si>
+    <t>Kamis, 11.00 - 13.00</t>
+  </si>
+  <si>
+    <t>C202 (kapasitas 60)</t>
+  </si>
+  <si>
+    <t>TIF13203</t>
+  </si>
+  <si>
+    <t>Jumat, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>C102 (kapasitas 40)</t>
+  </si>
+  <si>
+    <t>TIF13204</t>
+  </si>
+  <si>
+    <t>TIF13205</t>
+  </si>
+  <si>
+    <t>Rabu, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>TIF13208</t>
+  </si>
+  <si>
+    <t>Senin, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13302</t>
+  </si>
+  <si>
+    <t>Senin, 13.00 - 15.00</t>
+  </si>
+  <si>
+    <t>TIF13305</t>
+  </si>
+  <si>
     <t>Jumat, 15.00 - 17.00</t>
   </si>
   <si>
-    <t>E103 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13107</t>
-  </si>
-  <si>
-    <t>Senin, 15.00 - 17.00</t>
+    <t>TIF13306</t>
+  </si>
+  <si>
+    <t>Selasa, 07.00 - 09.00</t>
   </si>
   <si>
     <t>E202 (kapasitas 30)</t>
   </si>
   <si>
-    <t>TIF13108</t>
-  </si>
-  <si>
-    <t>Selasa, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>C103 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13110</t>
-  </si>
-  <si>
-    <t>Selasa, 09.00 - 11.00</t>
+    <t>TIF13307</t>
+  </si>
+  <si>
+    <t>E104 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13313</t>
+  </si>
+  <si>
+    <t>TIF13315</t>
+  </si>
+  <si>
+    <t>E101 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13316</t>
+  </si>
+  <si>
+    <t>TIF13317</t>
+  </si>
+  <si>
+    <t>Senin, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>TIF13320</t>
+  </si>
+  <si>
+    <t>Selasa, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13322</t>
+  </si>
+  <si>
+    <t>E204 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13324</t>
+  </si>
+  <si>
+    <t>Kamis, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13327</t>
+  </si>
+  <si>
+    <t>Jumat, 13.00 - 15.00</t>
   </si>
   <si>
     <t>E102 (kapasitas 30)</t>
   </si>
   <si>
-    <t>TIF13112</t>
-  </si>
-  <si>
-    <t>Jumat, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>E104 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13114</t>
+    <t>TIF13329</t>
+  </si>
+  <si>
+    <t>C104 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13331</t>
   </si>
   <si>
     <t>Rabu, 11.00 - 13.00</t>
   </si>
   <si>
-    <t>TIF13203</t>
+    <t>TIF13332</t>
+  </si>
+  <si>
+    <t>Kamis, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>TIF13334</t>
+  </si>
+  <si>
+    <t>Senin, 07.00 - 09.00</t>
+  </si>
+  <si>
+    <t>TIF13401</t>
   </si>
   <si>
     <t>Rabu, 07.00 - 09.00</t>
   </si>
   <si>
-    <t>TIF13204</t>
-  </si>
-  <si>
-    <t>Senin, 11.00 - 13.00</t>
-  </si>
-  <si>
-    <t>E101 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13205</t>
-  </si>
-  <si>
-    <t>C202 (kapasitas 60)</t>
-  </si>
-  <si>
-    <t>TIF13208</t>
-  </si>
-  <si>
-    <t>TIF13302</t>
-  </si>
-  <si>
-    <t>Selasa, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>C201 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13305</t>
-  </si>
-  <si>
-    <t>Senin, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>E201 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13306</t>
-  </si>
-  <si>
-    <t>TIF13307</t>
+    <t>UNO102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNO107 </t>
   </si>
   <si>
     <t>Kamis, 07.00 - 09.00</t>
-  </si>
-  <si>
-    <t>TIF13313</t>
-  </si>
-  <si>
-    <t>TIF13315</t>
-  </si>
-  <si>
-    <t>TIF13316</t>
-  </si>
-  <si>
-    <t>TIF13317</t>
-  </si>
-  <si>
-    <t>E204 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13320</t>
-  </si>
-  <si>
-    <t>Kamis, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>TIF13322</t>
-  </si>
-  <si>
-    <t>Rabu, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>TIF13324</t>
-  </si>
-  <si>
-    <t>C203 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13327</t>
-  </si>
-  <si>
-    <t>C104 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13329</t>
-  </si>
-  <si>
-    <t>TIF13331</t>
-  </si>
-  <si>
-    <t>Kamis, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>TIF13332</t>
-  </si>
-  <si>
-    <t>Rabu, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>TIF13334</t>
-  </si>
-  <si>
-    <t>TIF13401</t>
-  </si>
-  <si>
-    <t>UNO102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNO107 </t>
   </si>
 </sst>
 </file>
@@ -634,38 +649,38 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,122 +691,122 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
       <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -802,10 +817,10 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -816,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -833,7 +848,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -844,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -858,10 +873,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -872,108 +887,108 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hasil-jadwal-ujian.xlsx
+++ b/hasil-jadwal-ujian.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>JADWAL UJIAN AKHIR SEMESTER TEKNIK INFORMATIKA UNSOED 2019</t>
   </si>
   <si>
-    <t>Generasi ke-21</t>
+    <t>Generasi ke-23</t>
   </si>
   <si>
     <t>KODE</t>
@@ -37,184 +37,172 @@
     <t>TIF13105</t>
   </si>
   <si>
+    <t>Kamis, 13.00 - 15.00</t>
+  </si>
+  <si>
+    <t>E201 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13107</t>
+  </si>
+  <si>
+    <t>Jumat, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>C104 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13108</t>
+  </si>
+  <si>
+    <t>Rabu, 11.00 - 13.00</t>
+  </si>
+  <si>
+    <t>C102 (kapasitas 40)</t>
+  </si>
+  <si>
+    <t>TIF13110</t>
+  </si>
+  <si>
+    <t>C202 (kapasitas 60)</t>
+  </si>
+  <si>
+    <t>TIF13112</t>
+  </si>
+  <si>
+    <t>Rabu, 07.00 - 09.00</t>
+  </si>
+  <si>
+    <t>E204 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13114</t>
+  </si>
+  <si>
+    <t>Rabu, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13203</t>
+  </si>
+  <si>
+    <t>Rabu, 13.00 - 15.00</t>
+  </si>
+  <si>
+    <t>E101 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13204</t>
+  </si>
+  <si>
+    <t>C203 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13205</t>
+  </si>
+  <si>
+    <t>TIF13208</t>
+  </si>
+  <si>
+    <t>TIF13302</t>
+  </si>
+  <si>
+    <t>Senin, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>E102 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13305</t>
+  </si>
+  <si>
     <t>Selasa, 11.00 - 13.00</t>
   </si>
   <si>
+    <t>TIF13306</t>
+  </si>
+  <si>
+    <t>E103 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13307</t>
+  </si>
+  <si>
+    <t>C103 (kapasitas 30)</t>
+  </si>
+  <si>
+    <t>TIF13313</t>
+  </si>
+  <si>
+    <t>Kamis, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13315</t>
+  </si>
+  <si>
+    <t>TIF13316</t>
+  </si>
+  <si>
+    <t>Jumat, 13.00 - 15.00</t>
+  </si>
+  <si>
+    <t>TIF13317</t>
+  </si>
+  <si>
+    <t>TIF13320</t>
+  </si>
+  <si>
+    <t>Kamis, 11.00 - 13.00</t>
+  </si>
+  <si>
+    <t>TIF13322</t>
+  </si>
+  <si>
+    <t>TIF13324</t>
+  </si>
+  <si>
+    <t>Senin, 15.00 - 17.00</t>
+  </si>
+  <si>
+    <t>TIF13327</t>
+  </si>
+  <si>
+    <t>Rabu, 09.00 - 11.00</t>
+  </si>
+  <si>
+    <t>TIF13329</t>
+  </si>
+  <si>
+    <t>TIF13331</t>
+  </si>
+  <si>
+    <t>Jumat, 09.00 - 11.00</t>
+  </si>
+  <si>
     <t>C201 (kapasitas 30)</t>
   </si>
   <si>
-    <t>TIF13107</t>
-  </si>
-  <si>
-    <t>Selasa, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>E201 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13108</t>
-  </si>
-  <si>
-    <t>Rabu, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>C203 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13110</t>
-  </si>
-  <si>
-    <t>Selasa, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>E103 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13112</t>
-  </si>
-  <si>
-    <t>TIF13114</t>
-  </si>
-  <si>
-    <t>Kamis, 11.00 - 13.00</t>
-  </si>
-  <si>
-    <t>C202 (kapasitas 60)</t>
-  </si>
-  <si>
-    <t>TIF13203</t>
-  </si>
-  <si>
-    <t>Jumat, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>C102 (kapasitas 40)</t>
-  </si>
-  <si>
-    <t>TIF13204</t>
-  </si>
-  <si>
-    <t>TIF13205</t>
-  </si>
-  <si>
-    <t>Rabu, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>TIF13208</t>
-  </si>
-  <si>
-    <t>Senin, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>TIF13302</t>
-  </si>
-  <si>
-    <t>Senin, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>TIF13305</t>
-  </si>
-  <si>
-    <t>Jumat, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>TIF13306</t>
+    <t>TIF13332</t>
   </si>
   <si>
     <t>Selasa, 07.00 - 09.00</t>
   </si>
   <si>
-    <t>E202 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13307</t>
-  </si>
-  <si>
-    <t>E104 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13313</t>
-  </si>
-  <si>
-    <t>TIF13315</t>
-  </si>
-  <si>
-    <t>E101 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13316</t>
-  </si>
-  <si>
-    <t>TIF13317</t>
-  </si>
-  <si>
-    <t>Senin, 09.00 - 11.00</t>
-  </si>
-  <si>
-    <t>TIF13320</t>
-  </si>
-  <si>
-    <t>Selasa, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>TIF13322</t>
-  </si>
-  <si>
-    <t>E204 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13324</t>
-  </si>
-  <si>
-    <t>Kamis, 15.00 - 17.00</t>
-  </si>
-  <si>
-    <t>TIF13327</t>
-  </si>
-  <si>
-    <t>Jumat, 13.00 - 15.00</t>
-  </si>
-  <si>
-    <t>E102 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13329</t>
-  </si>
-  <si>
-    <t>C104 (kapasitas 30)</t>
-  </si>
-  <si>
-    <t>TIF13331</t>
-  </si>
-  <si>
-    <t>Rabu, 11.00 - 13.00</t>
-  </si>
-  <si>
-    <t>TIF13332</t>
+    <t>TIF13334</t>
   </si>
   <si>
     <t>Kamis, 09.00 - 11.00</t>
   </si>
   <si>
-    <t>TIF13334</t>
-  </si>
-  <si>
-    <t>Senin, 07.00 - 09.00</t>
-  </si>
-  <si>
     <t>TIF13401</t>
   </si>
   <si>
-    <t>Rabu, 07.00 - 09.00</t>
-  </si>
-  <si>
     <t>UNO102</t>
   </si>
   <si>
+    <t>Jumat, 07.00 - 09.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNO107 </t>
-  </si>
-  <si>
-    <t>Kamis, 07.00 - 09.00</t>
   </si>
 </sst>
 </file>
@@ -635,38 +623,38 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -691,24 +679,24 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -719,24 +707,24 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -750,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -761,15 +749,15 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -778,21 +766,21 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -803,24 +791,24 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -831,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -839,156 +827,156 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
